--- a/static/upload_sheet/AIDS_5.xlsx
+++ b/static/upload_sheet/AIDS_5.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -526,8 +526,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Roll Number</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -621,7 +623,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -651,7 +653,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -701,7 +703,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -831,7 +833,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -871,7 +873,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -971,7 +973,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1063,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1173,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/static/upload_sheet/AIDS_5.xlsx
+++ b/static/upload_sheet/AIDS_5.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-03-31</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/static/upload_sheet/AIDS_5.xlsx
+++ b/static/upload_sheet/AIDS_5.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -526,10 +526,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Roll Number</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -623,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -653,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -703,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -833,7 +831,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -863,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -873,7 +871,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -923,7 +921,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -973,7 +971,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1061,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>

--- a/static/upload_sheet/AIDS_5.xlsx
+++ b/static/upload_sheet/AIDS_5.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>

--- a/static/upload_sheet/AIDS_5.xlsx
+++ b/static/upload_sheet/AIDS_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,21 @@
           <t>2024-03-31</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>20/04/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -454,6 +469,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -464,6 +494,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -474,6 +519,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -484,6 +544,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -494,6 +569,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -504,6 +594,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -514,6 +619,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -524,6 +644,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -534,6 +669,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -544,6 +694,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -554,6 +719,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -564,6 +744,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -574,6 +769,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -584,6 +794,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -594,6 +819,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -604,6 +844,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -614,6 +869,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -624,6 +894,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -634,6 +919,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -644,6 +944,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -654,6 +969,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -664,6 +994,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -674,6 +1019,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -684,6 +1044,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -694,6 +1069,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -704,6 +1094,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -714,6 +1119,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -724,6 +1144,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -734,6 +1169,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -744,6 +1194,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -754,6 +1219,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -764,6 +1244,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -774,6 +1269,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -784,6 +1294,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -794,6 +1319,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -804,6 +1344,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -814,6 +1369,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -824,6 +1394,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -834,6 +1419,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -844,6 +1444,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -854,6 +1469,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -864,6 +1494,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -874,6 +1519,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -884,6 +1544,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -894,6 +1569,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -904,6 +1594,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -914,6 +1619,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -924,6 +1644,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -934,6 +1669,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -944,6 +1694,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -954,6 +1719,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -964,6 +1744,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -974,6 +1769,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -984,6 +1794,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -994,6 +1819,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1004,6 +1844,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1014,6 +1869,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1024,6 +1894,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1034,6 +1919,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1044,6 +1944,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1054,6 +1969,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1064,6 +1994,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1074,6 +2019,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1084,6 +2044,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1094,6 +2069,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1104,6 +2094,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1114,6 +2119,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1124,6 +2144,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1134,6 +2169,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1144,6 +2194,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1154,6 +2219,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1164,6 +2244,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1174,6 +2269,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1184,6 +2294,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1194,6 +2319,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1204,6 +2344,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1214,6 +2369,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1224,6 +2394,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1234,6 +2419,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1244,6 +2444,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1254,6 +2469,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1264,6 +2494,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1274,6 +2519,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1284,6 +2544,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1294,6 +2569,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1304,6 +2594,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1314,6 +2619,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1324,6 +2644,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1334,6 +2669,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1344,6 +2694,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1354,6 +2719,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1364,6 +2744,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1374,6 +2769,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1384,6 +2794,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1394,6 +2819,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1404,6 +2844,21 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1414,6 +2869,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1424,6 +2894,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1434,12 +2919,42 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>A</t>
         </is>
